--- a/data/DataHourlyReport.xlsx
+++ b/data/DataHourlyReport.xlsx
@@ -766,7 +766,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="240">
+  <x:cellStyleXfs count="268">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <x:alignment wrapText="1"/>
@@ -888,6 +888,90 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -24171,7 +24255,7 @@
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="22" t="n">
-        <x:v>677</x:v>
+        <x:v>644</x:v>
       </x:c>
       <x:c r="B9" s="22">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -24195,7 +24279,7 @@
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="22" t="n">
-        <x:v>3500</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B10" s="22">
         <x:f>IF(A10="",4000,A10)</x:f>

--- a/data/DataHourlyReport.xlsx
+++ b/data/DataHourlyReport.xlsx
@@ -766,7 +766,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="268">
+  <x:cellStyleXfs count="296">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <x:alignment wrapText="1"/>
@@ -888,6 +888,90 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -24255,7 +24339,7 @@
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="22" t="n">
-        <x:v>644</x:v>
+        <x:v>593</x:v>
       </x:c>
       <x:c r="B9" s="22">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -24279,7 +24363,7 @@
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A10" s="22" t="n">
-        <x:v>142</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B10" s="22">
         <x:f>IF(A10="",4000,A10)</x:f>
@@ -24355,7 +24439,7 @@
     </x:row>
     <x:row r="2" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A2" s="31" t="n">
-        <x:v>99.3</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="31">
         <x:f>IF(A2="",1,A2)</x:f>
@@ -24386,7 +24470,7 @@
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A3" s="31" t="n">
-        <x:v>99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="31">
         <x:f>IF(A3="",1,A3)</x:f>
@@ -24409,7 +24493,9 @@
       <x:c r="H3" s="22" t="s"/>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A4" s="22" t="s"/>
+      <x:c r="A4" s="22" t="n">
+        <x:v>99.944</x:v>
+      </x:c>
       <x:c r="B4" s="22" t="s"/>
       <x:c r="C4" s="35" t="s"/>
       <x:c r="D4" s="35" t="s"/>
@@ -24458,7 +24544,7 @@
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="A8" s="22" t="n">
-        <x:v>104.916</x:v>
+        <x:v>56.998</x:v>
       </x:c>
       <x:c r="B8" s="22">
         <x:f>IF(A8="",4000,A8)</x:f>
@@ -24489,7 +24575,7 @@
     </x:row>
     <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A9" s="22" t="n">
-        <x:v>887.1</x:v>
+        <x:v>251.6</x:v>
       </x:c>
       <x:c r="B9" s="22">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -24512,7 +24598,9 @@
       <x:c r="H9" s="27" t="s"/>
     </x:row>
     <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A10" s="22" t="s"/>
+      <x:c r="A10" s="22" t="n">
+        <x:v>81.23</x:v>
+      </x:c>
       <x:c r="B10" s="22" t="s"/>
       <x:c r="C10" s="35" t="s"/>
       <x:c r="D10" s="35" t="s"/>

--- a/data/DataHourlyReport.xlsx
+++ b/data/DataHourlyReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Documents\UGM\MBKM BRI\FILE\ok\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A9AB5-86E5-4BCC-976D-AB1CE8C765D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD94CA57-342E-4373-B876-7AF6D218C65A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="792" firstSheet="0" activeTab="7" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
+    <x:workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="792" firstSheet="0" activeTab="0" xr2:uid="{CEA043F9-B9CC-4A62-BD5F-6FF44D9B0F3D}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="RekapData" sheetId="7" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <x:t>Availability</x:t>
   </x:si>
   <x:si>
-    <x:t>"C:\Users\mikew\tempo\EcoOps-Bot-Incident New\screenshot\Availability.png"</x:t>
+    <x:t>C:\Users\adria\Documents\UGM\MBKM BRI\FILE\ok\screenshot\Availability.png</x:t>
   </x:si>
   <x:si>
     <x:t>Grafana</x:t>
@@ -77,19 +77,19 @@
     <x:t>SuccessRate</x:t>
   </x:si>
   <x:si>
-    <x:t>"C:\Users\mikew\tempo\EcoOps-Bot-Incident New\screenshot\SuccessRateGCP.png"</x:t>
+    <x:t>C:\Users\adria\Documents\UGM\MBKM BRI\FILE\ok\screenshot\SuccessRateGCP.png</x:t>
   </x:si>
   <x:si>
     <x:t>SRGCP</x:t>
   </x:si>
   <x:si>
-    <x:t>"C:\Users\mikew\tempo\EcoOps-Bot-Incident New\screenshot\ResponseTimeGCP.png"</x:t>
+    <x:t>C:\Users\adria\Documents\UGM\MBKM BRI\FILE\ok\screenshot\ResponseTimeGCP.png</x:t>
   </x:si>
   <x:si>
     <x:t>RTGCP</x:t>
   </x:si>
   <x:si>
-    <x:t>"C:\Users\mikew\tempo\EcoOps-Bot-Incident New\screenshot\SuccessRate-ResponseTimeGTI.png"</x:t>
+    <x:t>C:\Users\adria\Documents\UGM\MBKM BRI\FILE\ok\screenshot\SuccessRate-ResponseTimeGTI.png</x:t>
   </x:si>
   <x:si>
     <x:t>SRRTGTI</x:t>
@@ -251,10 +251,10 @@
     <x:t>UP</x:t>
   </x:si>
   <x:si>
-    <x:t>DOWN</x:t>
+    <x:t xml:space="preserve"> </x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> </x:t>
+    <x:t>N/A</x:t>
   </x:si>
   <x:si>
     <x:t>API UMI Corner</x:t>
@@ -771,7 +771,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="113">
+  <x:cellStyleXfs count="176">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0">
       <x:alignment wrapText="1"/>
@@ -890,6 +890,195 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="168" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="1" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="10" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
@@ -1628,8 +1817,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:H16"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="B3" workbookViewId="0">
-      <x:selection activeCell="E6" sqref="E6 E6:E6"/>
+    <x:sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <x:selection activeCell="F4" sqref="F4 F4:F4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2426,7 +2615,7 @@
     </x:row>
     <x:row r="3" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B3" s="19" t="s">
         <x:v>65</x:v>
@@ -2435,7 +2624,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="D3" s="24" t="s">
-        <x:v>67</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E3" s="19" t="str">
         <x:f>IF(A3=B3, "*OK* ✅","*NOT OK* ❌ PLEASE CHECK ⚠️")</x:f>
@@ -2508,7 +2697,7 @@
     </x:row>
     <x:row r="8" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
         <x:v>65</x:v>
@@ -2621,7 +2810,7 @@
     </x:row>
     <x:row r="15" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <x:c r="A15" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
         <x:v>65</x:v>
@@ -2668,7 +2857,7 @@
     </x:row>
     <x:row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A18" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B18" s="19" t="s">
         <x:v>65</x:v>
@@ -2818,7 +3007,7 @@
     </x:row>
     <x:row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A28" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B28" s="19" t="s">
         <x:v>65</x:v>
@@ -22537,7 +22726,7 @@
     </x:row>
     <x:row r="2" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="28" t="n">
-        <x:v>99.99</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B2" s="28">
         <x:f>IF(A2="",1,A2)</x:f>
@@ -22563,7 +22752,7 @@
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="28" t="n">
-        <x:v>99.951</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="28">
         <x:f>IF(A3="",1,A3)</x:f>
@@ -22586,7 +22775,7 @@
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="28" t="n">
-        <x:v>99.984</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B4" s="28">
         <x:f>IF(A4="",1,A4)</x:f>
@@ -22632,7 +22821,7 @@
     </x:row>
     <x:row r="6" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="28" t="n">
-        <x:v>99.72</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B6" s="28">
         <x:f>IF(A6="",1,A6)</x:f>
@@ -22775,7 +22964,7 @@
     </x:row>
     <x:row r="2" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A2" s="31" t="n">
-        <x:v>31</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B2" s="31">
         <x:f>IF(A2="",4000,A2)</x:f>
@@ -22845,7 +23034,7 @@
     </x:row>
     <x:row r="3" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="31" t="n">
-        <x:v>567</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="B3" s="31">
         <x:f>IF(A3="",4000,A3)</x:f>
@@ -22871,7 +23060,7 @@
     </x:row>
     <x:row r="4" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="31" t="n">
-        <x:v>345</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="B4" s="31">
         <x:f>IF(A4="",4000,A4)</x:f>
@@ -22897,7 +23086,7 @@
     </x:row>
     <x:row r="5" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A5" s="31" t="n">
-        <x:v>1008</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B5" s="31">
         <x:f>IF(A5="",4000,A5)</x:f>
@@ -22923,7 +23112,7 @@
     </x:row>
     <x:row r="6" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A6" s="31" t="n">
-        <x:v>77</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B6" s="31">
         <x:f>IF(A6="",4000,A6)</x:f>
@@ -22949,7 +23138,7 @@
     </x:row>
     <x:row r="7" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A7" s="31" t="n">
-        <x:v>40</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="31">
         <x:f>IF(A7="",4000,A7)</x:f>
@@ -22975,7 +23164,7 @@
     </x:row>
     <x:row r="8" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A8" s="31" t="n">
-        <x:v>45</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="B8" s="31">
         <x:f>IF(A8="",4000,A8)</x:f>
@@ -22999,7 +23188,7 @@
     </x:row>
     <x:row r="9" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="31" t="n">
-        <x:v>534</x:v>
+        <x:v>221</x:v>
       </x:c>
       <x:c r="B9" s="31">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -23069,7 +23258,7 @@
     </x:row>
     <x:row r="12" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A12" s="31" t="n">
-        <x:v>71</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B12" s="31">
         <x:f>IF(A12="",4000,A12)</x:f>
@@ -23093,7 +23282,7 @@
     </x:row>
     <x:row r="13" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A13" s="31" t="n">
-        <x:v>40</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="31">
         <x:f>IF(A13="",4000,A13)</x:f>
@@ -23117,7 +23306,7 @@
     </x:row>
     <x:row r="14" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A14" s="31" t="n">
-        <x:v>1008</x:v>
+        <x:v>535</x:v>
       </x:c>
       <x:c r="B14" s="31">
         <x:f>IF(A14="",4000,A14)</x:f>
@@ -23141,7 +23330,7 @@
     </x:row>
     <x:row r="15" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A15" s="19" t="n">
-        <x:v>12</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B15" s="31">
         <x:f>IF(A15="",4000,A15)</x:f>
@@ -23165,7 +23354,7 @@
     </x:row>
     <x:row r="16" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A16" s="31" t="n">
-        <x:v>1067</x:v>
+        <x:v>1104</x:v>
       </x:c>
       <x:c r="B16" s="31">
         <x:f>IF(A16="",4000,A16)</x:f>
@@ -23189,7 +23378,7 @@
     </x:row>
     <x:row r="17" spans="1:11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A17" s="31" t="n">
-        <x:v>838</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="B17" s="31">
         <x:f>IF(A17="",4000,A17)</x:f>
@@ -23213,7 +23402,7 @@
     </x:row>
     <x:row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A18" s="31" t="n">
-        <x:v>475</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B18" s="31">
         <x:f>IF(A18="",4000,A18)</x:f>
@@ -23236,7 +23425,7 @@
     </x:row>
     <x:row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <x:c r="A19" s="31" t="n">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="B19" s="31">
         <x:f>IF(A19="",4000,A19)</x:f>
@@ -23363,7 +23552,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:H10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="I6" sqref="I6 I6:I6"/>
     </x:sheetView>
   </x:sheetViews>
@@ -23439,7 +23628,7 @@
     </x:row>
     <x:row r="3" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A3" s="28" t="n">
-        <x:v>5</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B3" s="28">
         <x:f>IF(A3="",1,A3)</x:f>
@@ -23462,7 +23651,7 @@
     </x:row>
     <x:row r="4" spans="1:9" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A4" s="28" t="n">
-        <x:v>10</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="B4" s="28">
         <x:f>IF(A4="",1,A4)</x:f>
@@ -23547,7 +23736,7 @@
     </x:row>
     <x:row r="9" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="19" t="n">
-        <x:v>8627</x:v>
+        <x:v>1135</x:v>
       </x:c>
       <x:c r="B9" s="19">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -23571,7 +23760,7 @@
     </x:row>
     <x:row r="10" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="19" t="n">
-        <x:v>128000</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="B10" s="19">
         <x:f>IF(A10="",4000,A10)</x:f>
@@ -23683,9 +23872,7 @@
       </x:c>
     </x:row>
     <x:row r="3" spans="1:8" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A3" s="28" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A3" s="28" t="s"/>
       <x:c r="B3" s="28">
         <x:f>IF(A3="",1,A3)</x:f>
       </x:c>
@@ -23706,9 +23893,7 @@
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="A4" s="28" t="n">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="A4" s="28" t="s"/>
       <x:c r="B4" s="28">
         <x:f>IF(A4="",1,A4)</x:f>
       </x:c>
@@ -23738,6 +23923,9 @@
       <x:c r="H5" s="30" t="s"/>
     </x:row>
     <x:row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="19" t="n">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="C6" s="33" t="s"/>
       <x:c r="F6" s="19" t="str">
         <x:f>CONCATENATE(E6, " ", A6, " ", D6,)</x:f>
@@ -23767,7 +23955,7 @@
     </x:row>
     <x:row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <x:c r="A8" s="19" t="n">
-        <x:v>58.346</x:v>
+        <x:v>1140.6</x:v>
       </x:c>
       <x:c r="B8" s="19">
         <x:f>IF(A8="",4000,A8)</x:f>
@@ -23804,7 +23992,7 @@
     </x:row>
     <x:row r="9" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A9" s="19" t="n">
-        <x:v>2528.9</x:v>
+        <x:v>62.711</x:v>
       </x:c>
       <x:c r="B9" s="19">
         <x:f>IF(A9="",4000,A9)</x:f>
@@ -23828,7 +24016,7 @@
     </x:row>
     <x:row r="10" spans="1:8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <x:c r="A10" s="19" t="n">
-        <x:v>47.827</x:v>
+        <x:v>5.727</x:v>
       </x:c>
       <x:c r="B10" s="19">
         <x:f>IF(A10="",4000,A10)</x:f>
